--- a/TestPlan.xlsx
+++ b/TestPlan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BGModding - LCA\Game\00783\LCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7591C0-1686-468E-8C3D-B5C3A89A5D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953AAADC-B37C-4A81-B06B-1EC021C747AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8AC8A782-0398-45C7-9954-E981882F7190}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{8AC8A782-0398-45C7-9954-E981882F7190}"/>
   </bookViews>
   <sheets>
     <sheet name="BGEE on BG1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="29">
   <si>
     <t>Ammo Belt</t>
   </si>
@@ -88,6 +88,45 @@
   </si>
   <si>
     <t>Checked in Weidu</t>
+  </si>
+  <si>
+    <t>Corwin's Amulet</t>
+  </si>
+  <si>
+    <t>Corwin Letter</t>
+  </si>
+  <si>
+    <t>Schael Letter</t>
+  </si>
+  <si>
+    <t>Tent Cutscene</t>
+  </si>
+  <si>
+    <t>Archery Cutscene</t>
+  </si>
+  <si>
+    <t>Ashatiel Post-Duel Dialog</t>
+  </si>
+  <si>
+    <t>Hug &amp; Kiss - Avernus Escape</t>
+  </si>
+  <si>
+    <t>Explicit mod integration</t>
+  </si>
+  <si>
+    <t>Vai Boost Dialog</t>
+  </si>
+  <si>
+    <t>Trial Cutscene (Honorable Duel)</t>
+  </si>
+  <si>
+    <t>Trial Cutscene</t>
+  </si>
+  <si>
+    <t>Trial Cutscene, Romance (Honorable Duel)</t>
+  </si>
+  <si>
+    <t>Trial Cutscene, Romance</t>
   </si>
 </sst>
 </file>
@@ -461,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1D179C-DA44-449D-AE2B-63B6FEA61661}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,12 +706,104 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA8B8776-CC6F-4BF9-9A42-54CD485CAB61}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/TestPlan.xlsx
+++ b/TestPlan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BGModding - LCA\Game\00783\LCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953AAADC-B37C-4A81-B06B-1EC021C747AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F065DDCE-2FE1-48B3-A963-9850ED0CA90E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{8AC8A782-0398-45C7-9954-E981882F7190}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="15375" windowHeight="7785" activeTab="2" xr2:uid="{8AC8A782-0398-45C7-9954-E981882F7190}"/>
   </bookViews>
   <sheets>
     <sheet name="BGEE on BG1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
   <si>
     <t>Ammo Belt</t>
   </si>
@@ -709,7 +709,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,6 +756,9 @@
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">

--- a/TestPlan.xlsx
+++ b/TestPlan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BGModding - LCA\Game\00783\LCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F065DDCE-2FE1-48B3-A963-9850ED0CA90E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B04618D-6BD9-4E92-BC5A-92103BB5129B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="15375" windowHeight="7785" activeTab="2" xr2:uid="{8AC8A782-0398-45C7-9954-E981882F7190}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{8AC8A782-0398-45C7-9954-E981882F7190}"/>
   </bookViews>
   <sheets>
     <sheet name="BGEE on BG1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="29">
   <si>
     <t>Ammo Belt</t>
   </si>
@@ -714,7 +714,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="1" max="1" width="40.7109375" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
   </cols>
   <sheetData>
@@ -775,10 +775,16 @@
       <c r="A8" t="s">
         <v>22</v>
       </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">

--- a/TestPlan.xlsx
+++ b/TestPlan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BGModding - LCA\Game\00783\LCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B04618D-6BD9-4E92-BC5A-92103BB5129B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DC5717-6583-4244-9EA7-2BE2028B2196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{8AC8A782-0398-45C7-9954-E981882F7190}"/>
+    <workbookView xWindow="7065" yWindow="2400" windowWidth="13425" windowHeight="9120" activeTab="2" xr2:uid="{8AC8A782-0398-45C7-9954-E981882F7190}"/>
   </bookViews>
   <sheets>
     <sheet name="BGEE on BG1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="32">
   <si>
     <t>Ammo Belt</t>
   </si>
@@ -126,7 +126,16 @@
     <t>Trial Cutscene, Romance (Honorable Duel)</t>
   </si>
   <si>
-    <t>Trial Cutscene, Romance</t>
+    <t>Escape Dialog</t>
+  </si>
+  <si>
+    <t>Jail Dialog - Exile, Romance</t>
+  </si>
+  <si>
+    <t>Jail Dialog - Exile, Non-Romance</t>
+  </si>
+  <si>
+    <t>Jail Dialog - Execute</t>
   </si>
 </sst>
 </file>
@@ -706,10 +715,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA8B8776-CC6F-4BF9-9A42-54CD485CAB61}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,6 +774,9 @@
       <c r="A6" t="s">
         <v>20</v>
       </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -791,25 +803,64 @@
       <c r="A10" t="s">
         <v>24</v>
       </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/TestPlan.xlsx
+++ b/TestPlan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BGModding - LCA\Game\00783\LCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DC5717-6583-4244-9EA7-2BE2028B2196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9CF3B7-925D-4B7A-9067-9568C9B1C404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7065" yWindow="2400" windowWidth="13425" windowHeight="9120" activeTab="2" xr2:uid="{8AC8A782-0398-45C7-9954-E981882F7190}"/>
+    <workbookView xWindow="3720" yWindow="1860" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{8AC8A782-0398-45C7-9954-E981882F7190}"/>
   </bookViews>
   <sheets>
     <sheet name="BGEE on BG1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="47">
   <si>
     <t>Ammo Belt</t>
   </si>
@@ -136,6 +136,51 @@
   </si>
   <si>
     <t>Jail Dialog - Execute</t>
+  </si>
+  <si>
+    <t>Verify During Playtesting</t>
+  </si>
+  <si>
+    <t>Corwin sex boost</t>
+  </si>
+  <si>
+    <t>LCE Integration</t>
+  </si>
+  <si>
+    <t>Soultaker Dagger</t>
+  </si>
+  <si>
+    <t>Brega Interaction</t>
+  </si>
+  <si>
+    <t>Corwin Athkatla Spawn</t>
+  </si>
+  <si>
+    <t>Corwin Stat Matching</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Corwin Equipment Carryover</t>
+  </si>
+  <si>
+    <t>Corwin Banters</t>
+  </si>
+  <si>
+    <t>Bodhi Bite</t>
+  </si>
+  <si>
+    <t>Death from Bodhi Bite</t>
+  </si>
+  <si>
+    <t>Resurrection from Bodhi Bite</t>
+  </si>
+  <si>
+    <t>Trademeet Archery Competition</t>
+  </si>
+  <si>
+    <t>Corwin Capture - Spellhold</t>
   </si>
 </sst>
 </file>
@@ -715,10 +760,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA8B8776-CC6F-4BF9-9A42-54CD485CAB61}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,7 +772,7 @@
     <col min="2" max="2" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -738,7 +783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -746,7 +791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -754,7 +799,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -762,7 +807,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -770,7 +815,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -778,12 +823,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -791,7 +839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -799,7 +847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -807,7 +855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -815,7 +863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -823,7 +871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -831,7 +879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -839,7 +887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -847,7 +895,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -870,14 +918,100 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6E4DC5B-415B-43C6-A33B-B24E8040B3E3}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24:H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="38.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
